--- a/Data/Excel/2018/vaseis2.xlsx
+++ b/Data/Excel/2018/vaseis2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\My Projects\ypologismosMorion\Data\Excel\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93768C81-1224-4516-AE9C-A15028EAE717}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C57D2C8-A6A9-4E76-9AAE-5BE00F0CE10E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A792D1A8-F010-49FB-BFE3-4FA7A97CB7FB}"/>
   </bookViews>
@@ -1239,14 +1239,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102F266E-C708-4454-A806-2DF402F0FB96}">
   <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.88671875" customWidth="1"/>
     <col min="4" max="4" width="132.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1285,7 +1285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>141</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>19334</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>294</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>18529</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>310</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>18395</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>192</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>18240</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>307</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>18123</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>143</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>18102</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>148</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>18051</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>229</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>18033</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>176</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>17889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>194</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>17824</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>17784</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>282</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>17761</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>302</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>17728</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>301</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>17652</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>287</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>17595</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>177</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>17588</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>151</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>17587</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>149</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>17586</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>234</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>17522</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>309</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>17518</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>232</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>17463</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>293</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>17393</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>284</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>17349</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>311</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>17264</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>292</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>155</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>17222</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>286</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>17096</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>154</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>17085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>152</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>17050</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>235</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>17028</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>288</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>228</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>16952</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>297</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>16881</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>285</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>16867</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>265</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>16860</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>283</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>16825</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>196</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>16742</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>296</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>16720</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>308</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>16695</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>173</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>16631</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>262</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>16552</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>231</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>16520</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>289</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>16498</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>180</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>16372</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>257</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>16371</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>193</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>16329</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>250</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>161</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>16162</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>276</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>16092</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>241</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>16059</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>295</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>16056</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>291</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>256</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>179</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>15825</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>146</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>15812</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>190</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>15748</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>197</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>15715</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>181</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>260</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>15508</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>195</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>244</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>15473</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>233</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>15466</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>300</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>15450</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>278</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>178</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>15352</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>268</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>15345</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>168</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>171</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>15313</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>201</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>15152</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>237</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>15095</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>213</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>298</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>208</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>14930</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>189</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>14874</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>264</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>14815</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>261</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>14782</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>246</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>14748</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>212</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>14715</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>183</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>14674</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>163</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>14668</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>243</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>14647</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>202</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>14620</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>299</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>14541</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>142</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>14424</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>170</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>14352</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>139</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>14273</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>245</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>14267</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>270</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>14264</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>198</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>14105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>267</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>14086</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>140</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>14058</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>290</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>14029</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>175</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>14024</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>280</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>13913</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>137</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>200</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>13847</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>199</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>13841</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>247</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>13782</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>369</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>13697</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>182</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>13662</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>184</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>13618</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>312</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>13613</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>211</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>236</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>13454</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>217</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>13442</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>273</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>13354</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>230</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>13324</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>242</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>253</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>13314</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>279</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>13269</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>249</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>13244</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>239</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>13234</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>223</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>13204</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>277</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>13163</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>144</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>362</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>12940</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>281</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>12922</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>269</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>12913</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>251</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>12840</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>248</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>12777</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>147</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>12773</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>153</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>12739</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>216</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>12697</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>254</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>12495</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>138</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>12472</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>259</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>12382</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>252</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>12289</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>162</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>12284</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>185</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>12275</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>204</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>12260</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>363</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>12126</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>370</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>12050</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>238</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>272</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>11967</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>187</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>11932</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>335</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>11928</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>158</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>11833</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>263</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>11801</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>371</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>11779</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>172</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>11770</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>210</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>11629</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>191</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>11629</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>222</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>11601</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>258</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>11583</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>159</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>145</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>11537</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>207</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>11413</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>375</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>11254</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>275</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>11223</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>368</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>10975</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>355</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>10946</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>226</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>10913</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>328</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>10807</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>255</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>10713</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>266</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>10688</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>186</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>167</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>10526</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>220</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>377</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>10394</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>327</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>206</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>156</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>10154</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>209</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>205</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>374</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>10075</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>376</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>9992</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>304</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>165</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>227</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>188</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>9889</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>9794</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>225</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>9768</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>214</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>9766</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>373</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>9633</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>324</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>9598</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>219</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>9561</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>383</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>9555</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>218</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>372</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>9523</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>221</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>9467</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>160</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>9433</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>314</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>378</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>224</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>315</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>164</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>9296</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>341</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>9292</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>316</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>9207</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>334</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>9199</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>366</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>9144</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>356</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>9128</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>169</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>381</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>9046</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>215</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>384</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>8863</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>338</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>8772</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>339</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>8739</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>305</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>8738</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>354</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>351</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>8703</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>382</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>8669</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>329</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>8598</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>343</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>8586</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>271</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>303</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>8466</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>336</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>8409</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>306</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>358</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>8064</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>340</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>353</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>7880</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>350</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>157</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>7721</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>322</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>7689</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>349</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>7631</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>274</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>352</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>7555</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>342</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>325</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>357</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>7367</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>337</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>323</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>7342</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>333</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>326</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>321</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>7039</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>359</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>318</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>6795</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>361</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>6644</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>346</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>320</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>344</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>6438</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>360</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>319</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>348</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>345</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>6279</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>317</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>380</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>6082</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>365</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>347</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>313</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>364</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>331</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>5766</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>330</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>332</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>367</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>379</v>
       </c>
